--- a/resource/Env.xlsx
+++ b/resource/Env.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\WangYue\PurePlus-Amazon-Ask-User-Comment\run\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xenron/Downloads/Work/GitHub/xenron/Patent-Search/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01234AA-B911-604E-8BF0-9A0A2F784BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="1" r:id="rId1"/>
@@ -60,45 +61,44 @@
     <t>如果无法运行，则将pip安装目录追加到环境变量（如：C:\Users\Administrator\AppData\Local\Programs\Python\Python36\Scripts）</t>
   </si>
   <si>
-    <t>PurePlus-Amazon-Ask-User-Comment</t>
-  </si>
-  <si>
     <t>Sublime</t>
   </si>
   <si>
     <t>Sublime+Text+Build+3211+x64+Setup.exe</t>
-  </si>
-  <si>
-    <t>pip install –r C:\soft\PurePlus-Amazon-Ask-User-Comment\requirements.txt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>python C:\soft\get-pip.py</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patent-Search</t>
+  </si>
+  <si>
+    <t>pip install –r C:\soft\Patent-Search\requirements.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -128,7 +128,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,101 +400,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
